--- a/protocol_Red_loco30RED_AR20220922.xlsx
+++ b/protocol_Red_loco30RED_AR20220922.xlsx
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -455,26 +455,83 @@
         <v>30</v>
       </c>
       <c r="C2">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="D2">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <f>(D2*E2+F2)*H2+G2*1000</f>
-        <v>25000</v>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>30000</v>
+      </c>
+      <c r="D3">
+        <v>30000</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>30000</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>30000</v>
+      </c>
+      <c r="D4">
+        <v>30000</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>30000</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>90000</v>
       </c>
     </row>
   </sheetData>
